--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>编号</t>
   </si>
@@ -117,6 +117,36 @@
     <t>comments</t>
   </si>
   <si>
+    <t>Error_InternalBug</t>
+  </si>
+  <si>
+    <t>Error_InternalRuntime</t>
+  </si>
+  <si>
+    <t>Error_AnotherDeviceLogin</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>Error_NoOperActionForLongTime</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>Error_InvalidRequestParameter</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>Error_NoActiveServer</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
     <t>MaxJoinInBattleArmy</t>
   </si>
   <si>
@@ -136,33 +166,6 @@
   </si>
   <si>
     <t>abc123#!ydf</t>
-  </si>
-  <si>
-    <t>Error_InternalBug</t>
-  </si>
-  <si>
-    <t>Error_AnotherDeviceLogin</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>Error_NoOperActionForLongTime</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>Error_InvalidRequestParameter</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>Error_NoActiveServer</t>
-  </si>
-  <si>
-    <t>1004</t>
   </si>
 </sst>
 </file>
@@ -1194,12 +1197,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1246,101 +1249,105 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="3">
+        <v>200001</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="3">
+        <v>200002</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="3">
-        <v>2001</v>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="12" spans="2:4">
@@ -1502,16 +1509,6 @@
       <c r="B43" s="8"/>
       <c r="C43" s="3"/>
       <c r="D43" s="8"/>
-    </row>
-    <row r="44" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B44" s="8"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B45" s="8"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>编号</t>
   </si>
@@ -147,6 +147,18 @@
     <t>100004</t>
   </si>
   <si>
+    <t>Error_Alliance_Not_Exist</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>Error_Alliance_Not_Allow_To_Join</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
     <t>MaxJoinInBattleArmy</t>
   </si>
   <si>
@@ -166,6 +178,78 @@
   </si>
   <si>
     <t>abc123#!ydf</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_CREATE_ALLIANCE</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_JOIN_IN_ALLIANCE</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_JOIN_OUT_ALLIANCE</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_UP_TITLE</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_DOWN_TITLE</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_CHANGE_LEADER</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_REQ_REINFORCE</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_DONATE_REINFORCE</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_CHAT</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_KICKOUT_MEMBER</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_NEED_JOIN_IN</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_APPROVE_JOIN_IN</t>
+  </si>
+  <si>
+    <t>ALLIANCE_EVENT_REJECT_JOIN_IN</t>
+  </si>
+  <si>
+    <t>ALLIANCE_PARA_ACTION_ROLE_ID</t>
+  </si>
+  <si>
+    <t>ALLIANCE_PARA_ACTION_ROLE_NAME</t>
+  </si>
+  <si>
+    <t>ALLIANCE_PARA_ACTION_BY_ROLE_ID</t>
+  </si>
+  <si>
+    <t>ALLIANCE_PARA_ACTION_BY_ROLE_NAME</t>
+  </si>
+  <si>
+    <t>ALLIANCE_PARA_TITLE</t>
+  </si>
+  <si>
+    <t>ALLIANCE_PARA_REQ_REINFORCE_MSG</t>
+  </si>
+  <si>
+    <t>ALLIANCE_PARA_DONATE_DETAIL</t>
+  </si>
+  <si>
+    <t>ALLIANCE_PARA_CHAT_MSG</t>
+  </si>
+  <si>
+    <t>ALLIANCE_PARA_EVENT_EXPIRED</t>
+  </si>
+  <si>
+    <t>ITEM_ATTR_ROLE_NAME</t>
+  </si>
+  <si>
+    <t>roleName</t>
   </si>
 </sst>
 </file>
@@ -173,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -200,6 +284,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -207,142 +427,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -359,13 +443,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,67 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,97 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +648,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +709,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,32 +731,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,15 +749,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,10 +757,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,137 +769,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,20 +915,11 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1197,12 +1272,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1233,282 +1308,425 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="3">
         <v>200001</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="3">
         <v>200002</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B12" s="8"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B13" s="8"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B14" s="8"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B15" s="8"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B16" s="8"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B17" s="8"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B18" s="8"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B19" s="8"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B20" s="8"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B21" s="8"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B22" s="8"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B23" s="8"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B24" s="8"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B25" s="8"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B26" s="8"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B27" s="8"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B28" s="8"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B29" s="8"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B30" s="8"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B31" s="8"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B32" s="8"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B33" s="8"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B34" s="8"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B35" s="8"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B36" s="8"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8"/>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="3">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3">
+        <v>9</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="37" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B37" s="8"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8"/>
+      <c r="B37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B38" s="8"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="8"/>
+      <c r="B38" s="5"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B39" s="8"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="8"/>
+      <c r="B39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B40" s="8"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="8"/>
+      <c r="B40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B41" s="8"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="8"/>
+      <c r="B41" s="5"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B42" s="8"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="8"/>
+      <c r="B42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" s="3" customFormat="1" ht="12" spans="2:4">
-      <c r="B43" s="8"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="8"/>
+      <c r="B43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B49" s="5"/>
+      <c r="D49" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>编号</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>roleName</t>
+  </si>
+  <si>
+    <t>USER_QUERY_ALLIANCE_EVENT_DELTA_TIME</t>
+  </si>
+  <si>
+    <t>15day</t>
+  </si>
+  <si>
+    <t>USER_QUERY_ALLIANCE_EVENT_LIMIT_COUNT</t>
   </si>
 </sst>
 </file>
@@ -257,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -284,6 +293,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -291,6 +337,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -298,8 +345,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,53 +400,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,25 +423,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,30 +436,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -443,31 +452,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,145 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,15 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -676,15 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -696,26 +687,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,6 +720,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -757,145 +766,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,14 +1284,14 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
@@ -1676,12 +1685,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="37" s="3" customFormat="1" ht="12" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="B37" s="5"/>
+      <c r="C37" s="3">
+        <v>1296000000</v>
+      </c>
       <c r="D37" s="5"/>
-    </row>
-    <row r="38" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="E37" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="B38" s="5"/>
+      <c r="C38" s="3">
+        <v>20</v>
+      </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" s="3" customFormat="1" ht="12" spans="2:4">

--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE4333-94F1-46EC-BC7D-FC0AEE151905}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,19 +22,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1~1000</t>
         </r>
@@ -37,6 +43,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">，为基础常量，主要由程序添加
@@ -47,7 +54,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1000+</t>
         </r>
@@ -56,6 +63,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>，为模块常量，每</t>
@@ -65,7 +73,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>100</t>
         </r>
@@ -74,6 +82,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>分段为一个模块，主要由策划添加</t>
@@ -85,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>编号</t>
   </si>
@@ -259,19 +268,21 @@
   </si>
   <si>
     <t>USER_QUERY_ALLIANCE_EVENT_LIMIT_COUNT</t>
+  </si>
+  <si>
+    <t>USER_REQ_REINFORCE_TIME_INTERVAL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +294,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -290,154 +302,31 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,194 +339,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -660,251 +363,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -934,61 +395,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1275,31 +692,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="90.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="39.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="90.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +760,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +771,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1366,7 +782,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1377,7 +793,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1388,7 +804,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +815,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1410,7 +826,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1421,7 +837,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1434,7 +850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1445,7 +861,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1456,7 +872,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1466,7 +882,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1476,7 +892,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -1486,7 +902,7 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1496,7 +912,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -1506,7 +922,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="19" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1516,7 +932,7 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="20" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -1526,7 +942,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -1536,7 +952,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="22" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -1546,7 +962,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -1556,7 +972,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="24" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -1566,7 +982,7 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="25" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -1576,7 +992,7 @@
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="26" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -1586,7 +1002,7 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="27" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -1596,7 +1012,7 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="28" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
@@ -1606,7 +1022,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="29" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
@@ -1616,7 +1032,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="30" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
@@ -1626,7 +1042,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="31" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>48</v>
       </c>
@@ -1636,7 +1052,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="32" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>49</v>
       </c>
@@ -1646,7 +1062,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="33" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
@@ -1656,7 +1072,7 @@
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="34" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>51</v>
       </c>
@@ -1666,7 +1082,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="35" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -1676,7 +1092,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="36" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>53</v>
       </c>
@@ -1685,7 +1101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="12" spans="1:5">
+    <row r="37" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>55</v>
       </c>
@@ -1698,7 +1114,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="38" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -1708,88 +1124,95 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="39" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="B39" s="5"/>
+      <c r="C39" s="3">
+        <v>15</v>
+      </c>
       <c r="D39" s="5"/>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="E39" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="41" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="42" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="43" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="44" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="45" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="46" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="47" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="48" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="49" spans="2:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="D49" s="5"/>
     </row>
+    <row r="50" spans="2:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE4333-94F1-46EC-BC7D-FC0AEE151905}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,19 +16,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1~1000</t>
         </r>
@@ -43,7 +37,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">，为基础常量，主要由程序添加
@@ -54,7 +47,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1000+</t>
         </r>
@@ -63,7 +56,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>，为模块常量，每</t>
@@ -73,7 +65,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>100</t>
         </r>
@@ -82,7 +74,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>分段为一个模块，主要由策划添加</t>
@@ -94,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>编号</t>
   </si>
@@ -271,18 +262,22 @@
   </si>
   <si>
     <t>USER_REQ_REINFORCE_TIME_INTERVAL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>min</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,7 +289,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="新宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -302,31 +296,154 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="新宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,8 +456,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -363,9 +666,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -376,12 +921,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -395,17 +940,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -692,30 +1281,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="90.33203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="39.4416666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.775" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8833333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="90.3333333333333" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.88333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -732,14 +1322,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -749,30 +1339,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>200001</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>200002</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="5"/>
@@ -780,10 +1370,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="5"/>
@@ -791,21 +1381,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5"/>
@@ -813,10 +1403,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5"/>
@@ -824,10 +1414,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="5"/>
@@ -835,10 +1425,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="5"/>
@@ -846,254 +1436,254 @@
         <v>25</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>3</v>
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>4</v>
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>5</v>
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>6</v>
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>7</v>
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>8</v>
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>9</v>
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>10</v>
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>11</v>
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>12</v>
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>13</v>
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>2</v>
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>3</v>
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>4</v>
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>5</v>
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>6</v>
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>7</v>
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>8</v>
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>9</v>
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="5"/>
@@ -1101,118 +1691,124 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" s="2" customFormat="1" ht="12" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>1296000000</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="38" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A38" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="3">
-        <v>20</v>
+      <c r="C38" s="2">
+        <v>50</v>
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="39" s="2" customFormat="1" ht="12" spans="1:5">
+      <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>15</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="40" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="41" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="42" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="43" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="44" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="45" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="46" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="47" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="48" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="2:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="49" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="2:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="50" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B50" s="5"/>
       <c r="D50" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>编号</t>
   </si>
@@ -265,6 +265,24 @@
   </si>
   <si>
     <t>min</t>
+  </si>
+  <si>
+    <t>CHAT_GROUP_GENERAL</t>
+  </si>
+  <si>
+    <t>CHAT_GROUP_SYSTEM</t>
+  </si>
+  <si>
+    <t>CHAT_GROUP_ALLIANCE</t>
+  </si>
+  <si>
+    <t>CHAT_GROUP_PRIVATE</t>
+  </si>
+  <si>
+    <t>EMAIL_GROUP_SYSTEM</t>
+  </si>
+  <si>
+    <t>EMAIL_GROUP_GENERAL</t>
   </si>
 </sst>
 </file>
@@ -272,8 +290,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -300,7 +318,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -315,6 +333,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -323,119 +454,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -458,31 +476,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,151 +638,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,41 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -722,6 +705,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,26 +748,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,10 +790,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,19 +802,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,112 +823,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,9 +1308,9 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1727,28 +1745,64 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="12" spans="2:4">
+    <row r="40" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B40" s="5"/>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="12" spans="2:4">
+    <row r="41" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B41" s="5"/>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" s="2" customFormat="1" ht="12" spans="2:4">
+    <row r="42" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B42" s="5"/>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" s="2" customFormat="1" ht="12" spans="2:4">
+    <row r="43" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B43" s="5"/>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" s="2" customFormat="1" ht="12" spans="2:4">
+    <row r="44" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="B44" s="5"/>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" s="2" customFormat="1" ht="12" spans="2:4">
+    <row r="45" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B45" s="5"/>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
       <c r="D45" s="5"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="12" spans="2:4">

--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>编号</t>
   </si>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>EMAIL_GROUP_GENERAL</t>
+  </si>
+  <si>
+    <t>JOININ_ARMY_SEQ_ID_PREFIX</t>
+  </si>
+  <si>
+    <t>joinInArmySeq</t>
+  </si>
+  <si>
+    <t>JOININ_HERO_SEQ_ID_PREFIX</t>
+  </si>
+  <si>
+    <t>joinInHeroSeq</t>
   </si>
 </sst>
 </file>
@@ -290,8 +302,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -318,10 +330,55 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,12 +391,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -347,30 +420,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,9 +444,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,60 +467,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -476,187 +488,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +701,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,30 +765,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,15 +786,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -767,21 +794,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -790,10 +802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,133 +814,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1310,7 +1322,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1805,13 +1817,23 @@
       </c>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" s="2" customFormat="1" ht="12" spans="2:4">
+    <row r="46" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="12" spans="2:4">
+      <c r="D46" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B48" s="5"/>

--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -1322,7 +1322,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>编号</t>
   </si>
@@ -267,6 +267,9 @@
     <t>min</t>
   </si>
   <si>
+    <t>USER_MAX_FRIENDS</t>
+  </si>
+  <si>
     <t>CHAT_GROUP_GENERAL</t>
   </si>
   <si>
@@ -283,6 +286,21 @@
   </si>
   <si>
     <t>EMAIL_GROUP_GENERAL</t>
+  </si>
+  <si>
+    <t>EMAIL_GROUP_FRIEND</t>
+  </si>
+  <si>
+    <t>EMAIL_GROUP_FRIEND_APPLY</t>
+  </si>
+  <si>
+    <t>EMAIL_GROUP_ALLIANCE</t>
+  </si>
+  <si>
+    <t>EMAIL_TITLE_ID_ASK_AS_FRIEND</t>
+  </si>
+  <si>
+    <t>EMAIL_CONTENT_ID_ASK_AS_FRIEND</t>
   </si>
   <si>
     <t>JOININ_ARMY_SEQ_ID_PREFIX</t>
@@ -302,8 +320,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -327,6 +345,28 @@
       <color indexed="8"/>
       <name val="新宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -338,10 +378,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,20 +415,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -382,6 +430,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -390,10 +461,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,9 +476,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,59 +490,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -488,13 +506,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +650,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,145 +674,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,11 +715,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,7 +734,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,8 +757,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,32 +793,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,10 +820,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,133 +832,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,12 +1335,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1763,7 +1781,7 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D40" s="5"/>
     </row>
@@ -1773,7 +1791,7 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="5"/>
     </row>
@@ -1783,7 +1801,7 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="5"/>
     </row>
@@ -1793,7 +1811,7 @@
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="5"/>
     </row>
@@ -1803,7 +1821,7 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44" s="5"/>
     </row>
@@ -1813,7 +1831,7 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="5"/>
     </row>
@@ -1822,30 +1840,90 @@
         <v>66</v>
       </c>
       <c r="B46" s="5"/>
-      <c r="D46" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="12" spans="1:4">
       <c r="A47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="2">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="D47" s="5" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A49" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="12" spans="2:4">
-      <c r="B48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B49" s="5"/>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" s="2" customFormat="1" ht="12" spans="2:4">
+    <row r="50" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B50" s="5"/>
+      <c r="C50" s="2">
+        <v>50001</v>
+      </c>
       <c r="D50" s="5"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="2">
+        <v>60001</v>
+      </c>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="12" spans="2:4">
+      <c r="B54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="12" spans="2:4">
+      <c r="B55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="12" spans="2:4">
+      <c r="B56" s="5"/>
+      <c r="D56" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>编号</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>USER_MAX_FRIENDS</t>
+  </si>
+  <si>
+    <t>USER_MAX_APPLY_FRIEND_LIST</t>
   </si>
   <si>
     <t>CHAT_GROUP_GENERAL</t>
@@ -1335,12 +1338,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1791,7 +1794,7 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D41" s="5"/>
     </row>
@@ -1801,7 +1804,7 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="5"/>
     </row>
@@ -1811,7 +1814,7 @@
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="5"/>
     </row>
@@ -1821,7 +1824,7 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="5"/>
     </row>
@@ -1831,7 +1834,7 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" s="5"/>
     </row>
@@ -1841,7 +1844,7 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="5"/>
     </row>
@@ -1851,7 +1854,7 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="5"/>
     </row>
@@ -1861,7 +1864,7 @@
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" s="5"/>
     </row>
@@ -1871,7 +1874,7 @@
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" s="5"/>
     </row>
@@ -1881,7 +1884,7 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="2">
-        <v>50001</v>
+        <v>5</v>
       </c>
       <c r="D50" s="5"/>
     </row>
@@ -1891,7 +1894,7 @@
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="2">
-        <v>60001</v>
+        <v>50001</v>
       </c>
       <c r="D51" s="5"/>
     </row>
@@ -1900,22 +1903,28 @@
         <v>72</v>
       </c>
       <c r="B52" s="5"/>
-      <c r="D52" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="C52" s="2">
+        <v>60001</v>
+      </c>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="12" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="5"/>
       <c r="D53" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="12" spans="1:4">
+      <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B55" s="5"/>
@@ -1924,6 +1933,10 @@
     <row r="56" s="2" customFormat="1" ht="12" spans="2:4">
       <c r="B56" s="5"/>
       <c r="D56" s="5"/>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="12" spans="2:4">
+      <c r="B57" s="5"/>
+      <c r="D57" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>编号</t>
   </si>
@@ -177,7 +177,43 @@
     <t>TestConstStringValue</t>
   </si>
   <si>
-    <t>abc123#!ydf</t>
+    <t>abc123#!ydf1</t>
+  </si>
+  <si>
+    <t>UI_Panel_Name_Error</t>
+  </si>
+  <si>
+    <t>ErrorPanel</t>
+  </si>
+  <si>
+    <t>UI_Panel_Path_Error</t>
+  </si>
+  <si>
+    <t>prefabs/common/ErrorPanel.prefab</t>
+  </si>
+  <si>
+    <t>UI_Panel_Name_GamePreLoad</t>
+  </si>
+  <si>
+    <t>GamePreLoadPanel</t>
+  </si>
+  <si>
+    <t>UI_Panel_Path_GamePreLoad</t>
+  </si>
+  <si>
+    <t>prefabs/enter/GamePreLoadPanel.prefab</t>
+  </si>
+  <si>
+    <t>UI_Panel_Name_GameLoad</t>
+  </si>
+  <si>
+    <t>GameLoadPanel</t>
+  </si>
+  <si>
+    <t>UI_Panel_Path_GameLoad</t>
+  </si>
+  <si>
+    <t>prefabs/enter/GameLoadPanel.prefab</t>
   </si>
   <si>
     <t>ALLIANCE_EVENT_CREATE_ALLIANCE</t>
@@ -323,9 +359,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -352,13 +388,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,6 +402,50 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -396,20 +469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -419,17 +478,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,7 +494,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,11 +516,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,21 +529,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -509,25 +545,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,145 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +773,39 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -752,30 +821,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -798,15 +843,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -823,10 +859,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,133 +871,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -972,10 +1008,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,22 +1374,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="39.4416666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="39.4416666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.775" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8833333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="90.3333333333333" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88333333333333" style="3"/>
+    <col min="3" max="3" width="14.8833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="90.3333333333333" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1374,13 +1410,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1391,29 +1427,29 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>200001</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>200002</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="5"/>
@@ -1421,10 +1457,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="5"/>
@@ -1432,21 +1468,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5"/>
@@ -1454,10 +1490,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5"/>
@@ -1465,10 +1501,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="5"/>
@@ -1476,10 +1512,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="5"/>
@@ -1487,456 +1523,522 @@
         <v>25</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2">
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="2">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="2">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3">
         <v>5</v>
       </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="2">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3">
         <v>6</v>
       </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="2">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3">
         <v>7</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="2">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3">
         <v>8</v>
       </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3">
         <v>9</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="2">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="3">
         <v>10</v>
       </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="2">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3">
         <v>11</v>
       </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3">
         <v>12</v>
       </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="2">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3">
         <v>13</v>
       </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="3">
         <v>1</v>
       </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="2">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3">
         <v>2</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3">
         <v>3</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="2">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3">
         <v>4</v>
       </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3">
         <v>5</v>
       </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="2">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3">
         <v>6</v>
       </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3">
+        <v>7</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="3">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="12" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3">
+        <v>1296000000</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="3">
         <v>50</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="2">
-        <v>8</v>
-      </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="2">
-        <v>9</v>
-      </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="12" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="2">
-        <v>1296000000</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="2">
-        <v>50</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="12" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="12" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3">
         <v>15</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="2">
+      <c r="D45" s="5"/>
+      <c r="E45" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="3">
         <v>100</v>
       </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2">
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="3">
         <v>20</v>
       </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="2">
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="3">
         <v>1</v>
       </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2">
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="3">
         <v>2</v>
       </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="2">
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="3">
         <v>3</v>
       </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="2">
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="3">
         <v>4</v>
       </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="2">
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="3">
         <v>1</v>
       </c>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="2">
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="3">
         <v>2</v>
       </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="2">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="3">
         <v>3</v>
       </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2">
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="3">
         <v>4</v>
       </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A50" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="2">
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="3">
         <v>5</v>
       </c>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="2">
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="3">
         <v>50001</v>
       </c>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="2">
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="3">
         <v>60001</v>
       </c>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="D53" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="12" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="D54" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="12" spans="2:4">
-      <c r="B55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="12" spans="2:4">
-      <c r="B56" s="5"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="12" spans="2:4">
-      <c r="B57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B63" s="5"/>
+      <c r="D63" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>编号</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>prefabs/common/ErrorPanel.prefab</t>
+  </si>
+  <si>
+    <t>UI_Panel_Name_Exception</t>
+  </si>
+  <si>
+    <t>ExceptionPanel</t>
+  </si>
+  <si>
+    <t>UI_Panel_Path_Exception</t>
+  </si>
+  <si>
+    <t>prefabs/common/ExceptionPanel.prefab</t>
   </si>
   <si>
     <t>UI_Panel_Name_GamePreLoad</t>
@@ -359,10 +371,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -393,7 +405,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -417,13 +442,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -431,7 +449,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +460,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,23 +504,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,8 +534,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,13 +557,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,156 +719,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -720,12 +738,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,6 +766,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -769,24 +799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -798,6 +810,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,21 +853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -859,10 +871,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,133 +883,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,12 +1386,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1582,7 +1594,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" s="2" customFormat="1" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1604,7 +1616,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:5">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1615,430 +1627,452 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="20" s="2" customFormat="1" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" s="5"/>
     </row>
     <row r="27" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="5"/>
     </row>
     <row r="29" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29" s="5"/>
     </row>
     <row r="30" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31" s="5"/>
     </row>
     <row r="32" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" s="5"/>
     </row>
     <row r="33" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D40" s="5"/>
     </row>
     <row r="41" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="D42" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" s="3" customFormat="1" ht="12" spans="1:5">
+      <c r="C42" s="3">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="3">
-        <v>1296000000</v>
+        <v>9</v>
       </c>
       <c r="D43" s="5"/>
-      <c r="E43" s="3" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="44" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="3">
-        <v>50</v>
-      </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="45" s="3" customFormat="1" ht="12" spans="1:5">
       <c r="A45" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="3">
-        <v>15</v>
+        <v>1296000000</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="47" s="3" customFormat="1" ht="12" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D47" s="5"/>
+      <c r="E47" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="48" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D48" s="5"/>
     </row>
     <row r="49" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D49" s="5"/>
     </row>
     <row r="50" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" s="5"/>
     </row>
     <row r="51" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" s="5"/>
     </row>
     <row r="52" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" s="5"/>
     </row>
     <row r="53" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" s="5"/>
     </row>
     <row r="54" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54" s="5"/>
     </row>
     <row r="55" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" s="5"/>
     </row>
     <row r="56" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" s="5"/>
     </row>
     <row r="57" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="3">
-        <v>50001</v>
+        <v>4</v>
       </c>
       <c r="D57" s="5"/>
     </row>
     <row r="58" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="3">
-        <v>60001</v>
+        <v>5</v>
       </c>
       <c r="D58" s="5"/>
     </row>
     <row r="59" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B59" s="5"/>
-      <c r="D59" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="C59" s="3">
+        <v>50001</v>
+      </c>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B60" s="5"/>
-      <c r="D60" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="C60" s="3">
+        <v>60001</v>
+      </c>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A61" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="B61" s="5"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="D61" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A62" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="B62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="63" s="3" customFormat="1" ht="12" spans="2:4">
       <c r="B63" s="5"/>
       <c r="D63" s="5"/>
+    </row>
+    <row r="64" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B65" s="5"/>
+      <c r="D65" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfconf/conf/const.xlsx
+++ b/gfconf/conf/const.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>编号</t>
   </si>
@@ -159,10 +159,31 @@
     <t>100006</t>
   </si>
   <si>
+    <t>MatchType_Train</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MatchType_PVE</t>
+  </si>
+  <si>
+    <t>MatchType_GVE</t>
+  </si>
+  <si>
+    <t>MatchType_PVP</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>MatchType_MIX</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>MaxJoinInBattleArmy</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>最大上阵军队配置数目</t>
@@ -371,8 +392,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -399,28 +420,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,25 +472,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,17 +502,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,7 +541,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,97 +578,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,85 +758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,11 +787,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,6 +822,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,56 +865,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,10 +892,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -883,7 +904,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,124 +913,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,12 +1407,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1526,370 +1547,373 @@
       <c r="D10" s="5"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" s="2" customFormat="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:5">
       <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:5">
-      <c r="A16" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="7"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" s="2" customFormat="1" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:5">
+      <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="12" spans="1:4">
-      <c r="A22" s="3" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="12" spans="1:4">
-      <c r="A23" s="3" t="s">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" s="3" customFormat="1" ht="12" spans="1:4">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D28" s="5"/>
     </row>
     <row r="29" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D29" s="5"/>
     </row>
     <row r="30" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D31" s="5"/>
     </row>
     <row r="32" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32" s="5"/>
     </row>
     <row r="33" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D40" s="5"/>
     </row>
     <row r="41" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D42" s="5"/>
     </row>
     <row r="43" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D43" s="5"/>
     </row>
     <row r="44" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="D44" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" s="3" customFormat="1" ht="12" spans="1:5">
+      <c r="C44" s="3">
+        <v>5</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="3">
-        <v>1296000000</v>
+        <v>6</v>
       </c>
       <c r="D45" s="5"/>
-      <c r="E45" s="3" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="46" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A46" s="3" t="s">
@@ -1897,182 +1921,234 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="3">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" s="3" customFormat="1" ht="12" spans="1:5">
+    <row r="47" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A47" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="E47" s="3" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="48" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="3">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D48" s="5"/>
     </row>
     <row r="49" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="D49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3">
-        <v>20</v>
-      </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" s="3" customFormat="1" ht="12" spans="1:4">
+    </row>
+    <row r="50" s="3" customFormat="1" ht="12" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="3">
-        <v>1</v>
+        <v>1296000000</v>
       </c>
       <c r="D50" s="5"/>
+      <c r="E50" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="51" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="3">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" s="3" customFormat="1" ht="12" spans="1:4">
+    <row r="52" s="3" customFormat="1" ht="12" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D52" s="5"/>
+      <c r="E52" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="53" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D53" s="5"/>
     </row>
     <row r="54" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D54" s="5"/>
     </row>
     <row r="55" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="5"/>
     </row>
     <row r="56" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="5"/>
     </row>
     <row r="57" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="5"/>
     </row>
     <row r="58" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" s="5"/>
     </row>
     <row r="59" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="3">
-        <v>50001</v>
+        <v>1</v>
       </c>
       <c r="D59" s="5"/>
     </row>
     <row r="60" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="3">
-        <v>60001</v>
+        <v>2</v>
       </c>
       <c r="D60" s="5"/>
     </row>
     <row r="61" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="5"/>
-      <c r="D61" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" s="3" customFormat="1" ht="12" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="5"/>
-      <c r="D62" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="C62" s="3">
+        <v>4</v>
+      </c>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A63" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="B63" s="5"/>
+      <c r="C63" s="3">
+        <v>5</v>
+      </c>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="64" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A64" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="B64" s="5"/>
+      <c r="C64" s="3">
+        <v>50001</v>
+      </c>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" s="3" customFormat="1" ht="12" spans="2:4">
+    <row r="65" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="B65" s="5"/>
+      <c r="C65" s="3">
+        <v>60001</v>
+      </c>
       <c r="D65" s="5"/>
+    </row>
+    <row r="66" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1" ht="12" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B68" s="5"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" s="3" customFormat="1" ht="12" spans="2:4">
+      <c r="B70" s="5"/>
+      <c r="D70" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
